--- a/templates/16.xlsx
+++ b/templates/16.xlsx
@@ -226,6 +226,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -276,42 +312,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,650 +629,650 @@
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="30"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="H1" s="30" t="s">
+      <c r="F1" s="23"/>
+      <c r="H1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="I1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="30"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="28"/>
     </row>
     <row r="7" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="4"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="19"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="31"/>
     </row>
     <row r="8" spans="1:17" s="2" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="4"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="19"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="22"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="34"/>
     </row>
     <row r="10" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="16"/>
     </row>
     <row r="18" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="35"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="38"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="40"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
       <c r="M28" s="8"/>
     </row>
     <row r="29" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
       <c r="M30" s="8"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
     </row>
     <row r="31" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
       <c r="M31" s="8"/>
-      <c r="N31" s="27" t="s">
+      <c r="N31" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="O31" s="27"/>
+      <c r="O31" s="39"/>
     </row>
     <row r="32" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
     </row>
     <row r="33" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
       <c r="M33" s="9"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="24"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="36"/>
     </row>
     <row r="34" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
       <c r="M34" s="8"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="26"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="38"/>
     </row>
     <row r="35" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
       <c r="M35" s="8"/>
     </row>
     <row r="36" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="34"/>
-      <c r="C36" s="35"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
       <c r="M36" s="8"/>
     </row>
     <row r="37" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="35"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="18"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="37"/>
-      <c r="C39" s="38"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
       <c r="M39" s="8"/>
     </row>
     <row r="40" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
       <c r="M40" s="8"/>
     </row>
     <row r="41" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="16"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
       <c r="M41" s="8"/>
     </row>
     <row r="42" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="35"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="18"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
       <c r="M42" s="8"/>
     </row>
     <row r="43" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="32"/>
-      <c r="C43" s="33"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
       <c r="J43" s="8"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
       <c r="M43" s="8"/>
     </row>
     <row r="44" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="34"/>
-      <c r="C44" s="35"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
       <c r="J44" s="8"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
       <c r="M44" s="8"/>
     </row>
     <row r="45" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="38"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="22"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
       <c r="J45" s="8"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
       <c r="M45" s="8"/>
     </row>
     <row r="46" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="40"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="20"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
       <c r="J46" s="8"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
       <c r="M46" s="8"/>
     </row>
     <row r="47" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="37"/>
-      <c r="C47" s="38"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="22"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
       <c r="J47" s="8"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
       <c r="M47" s="8"/>
     </row>
     <row r="48" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
       <c r="J48" s="8"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
       <c r="M48" s="8"/>
     </row>
     <row r="49" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
       <c r="J49" s="9"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="38"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="22"/>
     </row>
     <row r="50" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
       <c r="J50" s="8"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="40"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="20"/>
     </row>
     <row r="51" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="32"/>
-      <c r="C51" s="33"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="16"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
       <c r="J51" s="8"/>
     </row>
     <row r="52" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="34"/>
-      <c r="C52" s="35"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
       <c r="J52" s="8"/>
-      <c r="M52" s="13" t="s">
+      <c r="M52" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
     </row>
     <row r="53" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="33"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="16"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
       <c r="J53" s="8"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="28"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
     </row>
     <row r="54" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="35"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="18"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
       <c r="J54" s="8"/>
       <c r="M54" s="11"/>
       <c r="N54" s="12"/>
@@ -1281,121 +1281,121 @@
       <c r="Q54" s="12"/>
     </row>
     <row r="55" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="37"/>
-      <c r="C55" s="38"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
       <c r="J55" s="8"/>
-      <c r="M55" s="13" t="s">
+      <c r="M55" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="N55" s="29"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="41"/>
     </row>
     <row r="56" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="39"/>
-      <c r="C56" s="40"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
       <c r="J56" s="8"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="28"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="40"/>
     </row>
     <row r="57" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
       <c r="G57" s="9"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="38"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="22"/>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
     </row>
     <row r="58" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="40"/>
-      <c r="M58" s="13" t="s">
+      <c r="H58" s="19"/>
+      <c r="I58" s="20"/>
+      <c r="M58" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="29"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="29"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="41"/>
+      <c r="P58" s="41"/>
+      <c r="Q58" s="41"/>
     </row>
     <row r="59" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="32"/>
-      <c r="C59" s="33"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
       <c r="G59" s="4"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="28"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="40"/>
     </row>
     <row r="60" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="34"/>
-      <c r="C60" s="35"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
       <c r="G60" s="4"/>
       <c r="N60" s="11"/>
       <c r="O60" s="11"/>
       <c r="P60" s="12"/>
     </row>
     <row r="61" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="38"/>
-      <c r="M61" s="13" t="s">
+      <c r="E61" s="21"/>
+      <c r="F61" s="22"/>
+      <c r="M61" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="29"/>
+      <c r="N61" s="41"/>
+      <c r="O61" s="41"/>
+      <c r="P61" s="41"/>
+      <c r="Q61" s="41"/>
     </row>
     <row r="62" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="40"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="28"/>
-      <c r="P62" s="28"/>
-      <c r="Q62" s="28"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="20"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="40"/>
+      <c r="P62" s="40"/>
+      <c r="Q62" s="40"/>
     </row>
     <row r="63" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="37"/>
-      <c r="C63" s="38"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="22"/>
     </row>
     <row r="64" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="39"/>
-      <c r="C64" s="40"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
     </row>
     <row r="65" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1406,38 +1406,34 @@
     <row r="71" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="K6:Q9"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N31:O32"/>
+    <mergeCell ref="N52:Q53"/>
+    <mergeCell ref="N55:Q56"/>
+    <mergeCell ref="N58:Q59"/>
+    <mergeCell ref="N61:Q62"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="E5:F5"/>
@@ -1454,34 +1450,38 @@
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="K6:Q9"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N31:O32"/>
-    <mergeCell ref="N52:Q53"/>
-    <mergeCell ref="N55:Q56"/>
-    <mergeCell ref="N58:Q59"/>
-    <mergeCell ref="N61:Q62"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/templates/16.xlsx
+++ b/templates/16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Winner</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Round of 16</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
   </si>
 </sst>
 </file>
@@ -96,7 +99,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -208,11 +211,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -232,29 +266,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,56 +323,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,7 +660,7 @@
   <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,46 +672,46 @@
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="23"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="H1" s="23" t="s">
+      <c r="F1" s="32"/>
+      <c r="H1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="I1" s="32"/>
+      <c r="K1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="23"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -676,53 +719,53 @@
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="28"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="4"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="31"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="21"/>
     </row>
     <row r="8" spans="1:17" s="2" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="5"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="4"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="31"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
     </row>
     <row r="9" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
@@ -730,15 +773,15 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="34"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="24"/>
     </row>
     <row r="10" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13"/>
@@ -746,12 +789,12 @@
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="4"/>
@@ -760,8 +803,8 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="4"/>
@@ -773,8 +816,8 @@
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="8"/>
@@ -783,15 +826,15 @@
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="H15" s="14"/>
@@ -799,8 +842,8 @@
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="H16" s="14"/>
@@ -815,8 +858,8 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="16"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="37"/>
     </row>
     <row r="18" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="13"/>
@@ -826,30 +869,30 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="39"/>
     </row>
     <row r="19" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="14"/>
+      <c r="K19" s="42"/>
       <c r="L19" s="14"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="14"/>
+      <c r="K20" s="43"/>
       <c r="L20" s="14"/>
       <c r="M20" s="8"/>
     </row>
@@ -857,12 +900,12 @@
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="14"/>
+      <c r="K21" s="43"/>
       <c r="L21" s="14"/>
       <c r="M21" s="8"/>
     </row>
@@ -870,38 +913,38 @@
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="14"/>
+      <c r="K22" s="43"/>
       <c r="L22" s="14"/>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="4"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="14"/>
+      <c r="K23" s="43"/>
       <c r="L23" s="14"/>
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="4"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="14"/>
+      <c r="K24" s="43"/>
       <c r="L24" s="14"/>
       <c r="M24" s="8"/>
     </row>
@@ -911,9 +954,9 @@
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22"/>
-      <c r="K25" s="14"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="41"/>
+      <c r="K25" s="43"/>
       <c r="L25" s="14"/>
       <c r="M25" s="8"/>
     </row>
@@ -923,33 +966,33 @@
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="20"/>
-      <c r="K26" s="14"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
+      <c r="K26" s="43"/>
       <c r="L26" s="14"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="4"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="K27" s="14"/>
+      <c r="K27" s="43"/>
       <c r="L27" s="14"/>
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="4"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-      <c r="K28" s="14"/>
+      <c r="K28" s="43"/>
       <c r="L28" s="14"/>
       <c r="M28" s="8"/>
     </row>
@@ -957,11 +1000,11 @@
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="22"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="41"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="K29" s="14"/>
+      <c r="K29" s="43"/>
       <c r="L29" s="14"/>
       <c r="M29" s="8"/>
     </row>
@@ -969,43 +1012,47 @@
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
-      <c r="K30" s="14"/>
+      <c r="K30" s="43"/>
       <c r="L30" s="14"/>
       <c r="M30" s="8"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
     </row>
     <row r="31" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="41"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="K31" s="14"/>
+      <c r="J31" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="29"/>
       <c r="L31" s="14"/>
       <c r="M31" s="8"/>
-      <c r="N31" s="39" t="s">
+      <c r="N31" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="O31" s="39"/>
+      <c r="O31" s="29"/>
     </row>
     <row r="32" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="K32" s="14"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
       <c r="L32" s="14"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
     </row>
     <row r="33" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
@@ -1014,11 +1061,12 @@
       <c r="F33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
-      <c r="K33" s="14"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="26"/>
       <c r="L33" s="14"/>
       <c r="M33" s="9"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="36"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="26"/>
     </row>
     <row r="34" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
@@ -1027,31 +1075,32 @@
       <c r="F34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
-      <c r="K34" s="14"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="28"/>
       <c r="L34" s="14"/>
       <c r="M34" s="8"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="38"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="28"/>
     </row>
     <row r="35" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-      <c r="K35" s="14"/>
+      <c r="K35" s="43"/>
       <c r="L35" s="14"/>
       <c r="M35" s="8"/>
     </row>
     <row r="36" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="39"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
-      <c r="K36" s="14"/>
+      <c r="K36" s="43"/>
       <c r="L36" s="14"/>
       <c r="M36" s="8"/>
     </row>
@@ -1059,11 +1108,11 @@
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="37"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
-      <c r="K37" s="14"/>
+      <c r="K37" s="43"/>
       <c r="L37" s="14"/>
       <c r="M37" s="8"/>
     </row>
@@ -1071,35 +1120,35 @@
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="18"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="39"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
-      <c r="K38" s="14"/>
+      <c r="K38" s="43"/>
       <c r="L38" s="14"/>
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="41"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="4"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
-      <c r="K39" s="14"/>
+      <c r="K39" s="43"/>
       <c r="L39" s="14"/>
       <c r="M39" s="8"/>
     </row>
     <row r="40" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="35"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="4"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
-      <c r="K40" s="14"/>
+      <c r="K40" s="43"/>
       <c r="L40" s="14"/>
       <c r="M40" s="8"/>
     </row>
@@ -1109,9 +1158,9 @@
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="16"/>
-      <c r="K41" s="14"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="37"/>
+      <c r="K41" s="43"/>
       <c r="L41" s="14"/>
       <c r="M41" s="8"/>
     </row>
@@ -1121,35 +1170,35 @@
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="18"/>
-      <c r="K42" s="14"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="39"/>
+      <c r="K42" s="43"/>
       <c r="L42" s="14"/>
       <c r="M42" s="8"/>
     </row>
     <row r="43" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="4"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="8"/>
-      <c r="K43" s="14"/>
+      <c r="K43" s="43"/>
       <c r="L43" s="14"/>
       <c r="M43" s="8"/>
     </row>
     <row r="44" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="39"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="4"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="8"/>
-      <c r="K44" s="14"/>
+      <c r="K44" s="43"/>
       <c r="L44" s="14"/>
       <c r="M44" s="8"/>
     </row>
@@ -1157,12 +1206,12 @@
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="22"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="41"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="8"/>
-      <c r="K45" s="14"/>
+      <c r="K45" s="43"/>
       <c r="L45" s="14"/>
       <c r="M45" s="8"/>
     </row>
@@ -1170,36 +1219,36 @@
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="20"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="35"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
       <c r="J46" s="8"/>
-      <c r="K46" s="14"/>
+      <c r="K46" s="43"/>
       <c r="L46" s="14"/>
       <c r="M46" s="8"/>
     </row>
     <row r="47" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="21"/>
-      <c r="C47" s="22"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="41"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
       <c r="J47" s="8"/>
-      <c r="K47" s="14"/>
+      <c r="K47" s="43"/>
       <c r="L47" s="14"/>
       <c r="M47" s="8"/>
     </row>
     <row r="48" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="35"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
       <c r="J48" s="8"/>
-      <c r="K48" s="14"/>
+      <c r="K48" s="44"/>
       <c r="L48" s="14"/>
       <c r="M48" s="8"/>
     </row>
@@ -1211,8 +1260,8 @@
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="9"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="22"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="41"/>
     </row>
     <row r="50" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="13"/>
@@ -1222,12 +1271,12 @@
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="8"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="20"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="35"/>
     </row>
     <row r="51" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="15"/>
-      <c r="C51" s="16"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="37"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="H51" s="14"/>
@@ -1235,42 +1284,40 @@
       <c r="J51" s="8"/>
     </row>
     <row r="52" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="39"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="8"/>
-      <c r="M52" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
     </row>
     <row r="53" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="16"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="37"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="8"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
     </row>
     <row r="54" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="18"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="39"/>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
       <c r="J54" s="8"/>
@@ -1281,36 +1328,36 @@
       <c r="Q54" s="12"/>
     </row>
     <row r="55" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="21"/>
-      <c r="C55" s="22"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="41"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c r="G55" s="4"/>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="8"/>
-      <c r="M55" s="25" t="s">
-        <v>4</v>
+      <c r="M55" s="15" t="s">
+        <v>3</v>
       </c>
-      <c r="N55" s="41"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="41"/>
-      <c r="Q55" s="41"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
     </row>
     <row r="56" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="35"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="4"/>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="8"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
     </row>
     <row r="57" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="13"/>
@@ -1318,12 +1365,13 @@
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
       <c r="G57" s="9"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="22"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="41"/>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
     </row>
     <row r="58" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="13"/>
@@ -1331,71 +1379,73 @@
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="20"/>
-      <c r="M58" s="25" t="s">
-        <v>5</v>
+      <c r="H58" s="34"/>
+      <c r="I58" s="35"/>
+      <c r="M58" s="15" t="s">
+        <v>4</v>
       </c>
-      <c r="N58" s="41"/>
-      <c r="O58" s="41"/>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="41"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
     </row>
     <row r="59" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="15"/>
-      <c r="C59" s="16"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="37"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
       <c r="G59" s="4"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="40"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="30"/>
     </row>
     <row r="60" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="17"/>
-      <c r="C60" s="18"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="39"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
       <c r="G60" s="4"/>
+      <c r="M60" s="11"/>
       <c r="N60" s="11"/>
       <c r="O60" s="11"/>
       <c r="P60" s="12"/>
+      <c r="Q60" s="11"/>
     </row>
     <row r="61" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="22"/>
-      <c r="M61" s="25" t="s">
+      <c r="E61" s="40"/>
+      <c r="F61" s="41"/>
+      <c r="M61" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N61" s="41"/>
-      <c r="O61" s="41"/>
-      <c r="P61" s="41"/>
-      <c r="Q61" s="41"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
     </row>
     <row r="62" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="20"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="35"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
     </row>
     <row r="63" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="41"/>
     </row>
     <row r="64" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="35"/>
     </row>
     <row r="65" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1405,19 +1455,55 @@
     <row r="70" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="71" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="K6:Q9"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N31:O32"/>
-    <mergeCell ref="N52:Q53"/>
-    <mergeCell ref="N55:Q56"/>
-    <mergeCell ref="N58:Q59"/>
-    <mergeCell ref="N61:Q62"/>
+  <mergeCells count="79">
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B55:C55"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="E1:F2"/>
     <mergeCell ref="H1:I2"/>
@@ -1434,54 +1520,21 @@
     <mergeCell ref="H57:I57"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="K6:Q9"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N31:O32"/>
+    <mergeCell ref="N52:Q53"/>
+    <mergeCell ref="N55:Q56"/>
+    <mergeCell ref="N58:Q59"/>
+    <mergeCell ref="N61:Q62"/>
+    <mergeCell ref="J31:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
